--- a/teaching/traditional_assets/database/data/oman/oman_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/oman/oman_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.006450000000000001</v>
+        <v>0.01755</v>
       </c>
       <c r="E2">
-        <v>-0.1385</v>
+        <v>0.174</v>
       </c>
       <c r="G2">
-        <v>0.151358024691358</v>
+        <v>0.1318227593152064</v>
       </c>
       <c r="H2">
-        <v>0.151358024691358</v>
+        <v>0.1318227593152064</v>
       </c>
       <c r="I2">
-        <v>0.1166192378503977</v>
+        <v>0.165508559919436</v>
       </c>
       <c r="J2">
-        <v>0.08877338930081087</v>
+        <v>0.1456953753912002</v>
       </c>
       <c r="K2">
-        <v>10.27</v>
+        <v>25.16</v>
       </c>
       <c r="L2">
-        <v>0.08452674897119342</v>
+        <v>0.126686807653575</v>
       </c>
       <c r="M2">
-        <v>10.07</v>
+        <v>10.52</v>
       </c>
       <c r="N2">
-        <v>0.07121640735502123</v>
+        <v>0.0492970946579194</v>
       </c>
       <c r="O2">
-        <v>0.9805258033106135</v>
+        <v>0.4181240063593005</v>
       </c>
       <c r="P2">
-        <v>10.07</v>
+        <v>10.52</v>
       </c>
       <c r="Q2">
-        <v>0.07121640735502123</v>
+        <v>0.0492970946579194</v>
       </c>
       <c r="R2">
-        <v>0.9805258033106135</v>
+        <v>0.4181240063593005</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>28.25</v>
+        <v>35.353</v>
       </c>
       <c r="V2">
-        <v>0.1997878359264498</v>
+        <v>0.1656654170571696</v>
       </c>
       <c r="W2">
-        <v>0.0604</v>
+        <v>0.1099820578289973</v>
       </c>
       <c r="X2">
-        <v>0.06049968388733169</v>
+        <v>0.06600886964855902</v>
       </c>
       <c r="Y2">
-        <v>-9.968388733169048e-05</v>
+        <v>0.04397318818043829</v>
       </c>
       <c r="Z2">
-        <v>0.7757441072861379</v>
+        <v>0.8519583029471066</v>
       </c>
       <c r="AA2">
-        <v>0.06555046025873605</v>
+        <v>0.1277407710708613</v>
       </c>
       <c r="AB2">
-        <v>0.06036380995046175</v>
+        <v>0.06523099898918069</v>
       </c>
       <c r="AC2">
-        <v>0.005186650308274303</v>
+        <v>0.06415522656919559</v>
       </c>
       <c r="AD2">
-        <v>0.595</v>
+        <v>16.634</v>
       </c>
       <c r="AE2">
-        <v>0.6638130058833918</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.258813005883392</v>
+        <v>16.634</v>
       </c>
       <c r="AG2">
-        <v>-26.99118699411661</v>
+        <v>-18.719</v>
       </c>
       <c r="AH2">
-        <v>0.008823941398078766</v>
+        <v>0.07231104967091821</v>
       </c>
       <c r="AI2">
-        <v>0.006884070749397734</v>
+        <v>0.05856341142257617</v>
       </c>
       <c r="AJ2">
-        <v>-0.2359187748301226</v>
+        <v>-0.0961521668781237</v>
       </c>
       <c r="AK2">
-        <v>-0.1745772861802484</v>
+        <v>-0.07527314109240353</v>
       </c>
       <c r="AL2">
-        <v>0.008</v>
+        <v>1.21</v>
       </c>
       <c r="AM2">
-        <v>0.008</v>
+        <v>1.21</v>
       </c>
       <c r="AN2">
-        <v>0.03663341952961457</v>
+        <v>0.4775768016078094</v>
       </c>
       <c r="AO2">
-        <v>1755</v>
+        <v>27.16528925619835</v>
       </c>
       <c r="AP2">
-        <v>-1.661814246651681</v>
+        <v>-0.537438989376974</v>
       </c>
       <c r="AQ2">
-        <v>1755</v>
+        <v>27.16528925619835</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oman Qatar Insurance Company SAOG (MSM:OQIC)</t>
+          <t>Dhofar Insurance Company SAOG (MSM:DICS)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -724,23 +724,29 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.156</v>
+      </c>
+      <c r="E3">
+        <v>0.146</v>
+      </c>
       <c r="G3">
-        <v>0.1614406779661017</v>
+        <v>0.1676557863501484</v>
       </c>
       <c r="H3">
-        <v>0.1614406779661017</v>
+        <v>0.1676557863501484</v>
       </c>
       <c r="I3">
-        <v>0.1563236185942085</v>
+        <v>0.2077151335311573</v>
       </c>
       <c r="J3">
-        <v>0.1335576155482351</v>
+        <v>0.1787493534424087</v>
       </c>
       <c r="K3">
-        <v>3.04</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="L3">
-        <v>0.1288135593220339</v>
+        <v>0.1388724035608308</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -764,73 +770,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>15.5</v>
+        <v>17.3</v>
       </c>
       <c r="V3">
-        <v>0.6485355648535566</v>
+        <v>0.4061032863849765</v>
       </c>
       <c r="W3">
-        <v>0.07524752475247524</v>
+        <v>0.1674418604651163</v>
       </c>
       <c r="X3">
-        <v>0.06121430270719756</v>
+        <v>0.077606546158449</v>
       </c>
       <c r="Y3">
-        <v>0.01403322204527768</v>
+        <v>0.08983531430666727</v>
       </c>
       <c r="Z3">
-        <v>0.7671350750794984</v>
+        <v>1.227686703096539</v>
       </c>
       <c r="AA3">
-        <v>0.1024567314310341</v>
+        <v>0.2194482044083488</v>
       </c>
       <c r="AB3">
-        <v>0.06091285967631949</v>
+        <v>0.06959898548324508</v>
       </c>
       <c r="AC3">
-        <v>0.0415438717547146</v>
+        <v>0.1498492189251037</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE3">
-        <v>0.6638130058833918</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.6638130058833918</v>
+        <v>13</v>
       </c>
       <c r="AG3">
-        <v>-14.83618699411661</v>
+        <v>-4.300000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.02702402130012954</v>
+        <v>0.2338129496402878</v>
       </c>
       <c r="AI3">
-        <v>0.01516807975105259</v>
+        <v>0.1681759379042691</v>
       </c>
       <c r="AJ3">
-        <v>-1.636859342142907</v>
+        <v>-0.1122715404699739</v>
       </c>
       <c r="AK3">
-        <v>-0.5249180990204085</v>
+        <v>-0.07166666666666668</v>
       </c>
       <c r="AL3">
-        <v>0.008</v>
+        <v>1.21</v>
       </c>
       <c r="AM3">
-        <v>0.008</v>
+        <v>1.21</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="AO3">
-        <v>445</v>
+        <v>11.5702479338843</v>
       </c>
       <c r="AP3">
-        <v>-3.573262763515561</v>
+        <v>-0.2986111111111112</v>
       </c>
       <c r="AQ3">
-        <v>445</v>
+        <v>11.5702479338843</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +847,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oman United Insurance Company SAOG (MSM:OUIS)</t>
+          <t>Oman United Insurance Company SAOG (MSM:OUIC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,46 +856,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0581</v>
+        <v>-0.0365</v>
       </c>
       <c r="E4">
-        <v>-0.204</v>
+        <v>0.174</v>
       </c>
       <c r="G4">
-        <v>0.2060931899641577</v>
+        <v>0.2319109461966605</v>
       </c>
       <c r="H4">
-        <v>0.2060931899641577</v>
+        <v>0.2319109461966605</v>
       </c>
       <c r="I4">
-        <v>0.1267025089605735</v>
+        <v>0.300556586270872</v>
       </c>
       <c r="J4">
-        <v>0.08077508328657154</v>
+        <v>0.25139146567718</v>
       </c>
       <c r="K4">
-        <v>4.53</v>
+        <v>13.6</v>
       </c>
       <c r="L4">
-        <v>0.08118279569892474</v>
+        <v>0.2523191094619666</v>
       </c>
       <c r="M4">
-        <v>7.8</v>
+        <v>7.79</v>
       </c>
       <c r="N4">
-        <v>0.09558823529411765</v>
+        <v>0.07497593840230991</v>
       </c>
       <c r="O4">
-        <v>1.721854304635762</v>
+        <v>0.5727941176470588</v>
       </c>
       <c r="P4">
-        <v>7.8</v>
+        <v>7.79</v>
       </c>
       <c r="Q4">
-        <v>0.09558823529411765</v>
+        <v>0.07497593840230991</v>
       </c>
       <c r="R4">
-        <v>1.721854304635762</v>
+        <v>0.5727941176470588</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -898,55 +904,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.01776960784313725</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0604</v>
+        <v>0.1912798874824191</v>
       </c>
       <c r="X4">
-        <v>0.06049968388733169</v>
+        <v>0.06370820384281146</v>
       </c>
       <c r="Y4">
-        <v>-9.968388733169048e-05</v>
+        <v>0.1275716836396077</v>
       </c>
       <c r="Z4">
-        <v>0.8115183246073298</v>
+        <v>0.7673143996013952</v>
       </c>
       <c r="AA4">
-        <v>0.06555046025873605</v>
+        <v>0.1928962915510001</v>
       </c>
       <c r="AB4">
-        <v>0.06036380995046175</v>
+        <v>0.06363327229597028</v>
       </c>
       <c r="AC4">
-        <v>0.005186650308274303</v>
+        <v>0.1292630192550298</v>
       </c>
       <c r="AD4">
-        <v>0.595</v>
+        <v>0.384</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.595</v>
+        <v>0.384</v>
       </c>
       <c r="AG4">
-        <v>-0.855</v>
+        <v>0.384</v>
       </c>
       <c r="AH4">
-        <v>0.007238883143743537</v>
+        <v>0.003682252310996893</v>
       </c>
       <c r="AI4">
-        <v>0.008299044563777112</v>
+        <v>0.004962266101519694</v>
       </c>
       <c r="AJ4">
-        <v>-0.01058889095300019</v>
+        <v>0.003682252310996893</v>
       </c>
       <c r="AK4">
-        <v>-0.01217168481742473</v>
+        <v>0.004962266101519694</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -955,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.07256097560975611</v>
+        <v>0.02232558139534884</v>
       </c>
       <c r="AP4">
-        <v>-0.1042682926829268</v>
+        <v>0.02232558139534884</v>
       </c>
     </row>
     <row r="5">
@@ -978,46 +984,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0452</v>
+        <v>0.0716</v>
       </c>
       <c r="E5">
-        <v>-0.073</v>
+        <v>0.278</v>
       </c>
       <c r="G5">
-        <v>0.07315914489311164</v>
+        <v>0.08249400479616306</v>
       </c>
       <c r="H5">
-        <v>0.07315914489311164</v>
+        <v>0.08249400479616306</v>
       </c>
       <c r="I5">
-        <v>0.08099762470308788</v>
+        <v>0.1021582733812949</v>
       </c>
       <c r="J5">
-        <v>0.06413301662707838</v>
+        <v>0.08419742345658357</v>
       </c>
       <c r="K5">
-        <v>2.7</v>
+        <v>3.54</v>
       </c>
       <c r="L5">
-        <v>0.06413301662707839</v>
+        <v>0.08489208633093524</v>
       </c>
       <c r="M5">
-        <v>2.27</v>
+        <v>2.73</v>
       </c>
       <c r="N5">
-        <v>0.06323119777158774</v>
+        <v>0.07690140845070423</v>
       </c>
       <c r="O5">
-        <v>0.8407407407407407</v>
+        <v>0.771186440677966</v>
       </c>
       <c r="P5">
-        <v>2.27</v>
+        <v>2.73</v>
       </c>
       <c r="Q5">
-        <v>0.06323119777158774</v>
+        <v>0.07690140845070423</v>
       </c>
       <c r="R5">
-        <v>0.8407407407407407</v>
+        <v>0.771186440677966</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1026,31 +1032,31 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>11.3</v>
+        <v>17.7</v>
       </c>
       <c r="V5">
-        <v>0.3147632311977716</v>
+        <v>0.4985915492957746</v>
       </c>
       <c r="W5">
-        <v>0.04225352112676057</v>
+        <v>0.05252225519287834</v>
       </c>
       <c r="X5">
-        <v>0.06024528860897399</v>
+        <v>0.06353781670736119</v>
       </c>
       <c r="Y5">
-        <v>-0.01799176748221342</v>
+        <v>-0.01101556151448286</v>
       </c>
       <c r="Z5">
-        <v>0.7373029772329247</v>
+        <v>0.7433155080213903</v>
       </c>
       <c r="AA5">
-        <v>0.04728546409807356</v>
+        <v>0.06258525059072255</v>
       </c>
       <c r="AB5">
-        <v>0.06024528860897399</v>
+        <v>0.06353781670736119</v>
       </c>
       <c r="AC5">
-        <v>-0.01295982451090043</v>
+        <v>-0.0009525661166386451</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1062,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-11.3</v>
+        <v>-17.7</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1071,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.459349593495935</v>
+        <v>-0.99438202247191</v>
       </c>
       <c r="AK5">
-        <v>-0.2014260249554367</v>
+        <v>-0.3582995951417005</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1086,7 +1092,129 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>-2.904884318766067</v>
+        <v>-3.75796178343949</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Takaful Oman Insurance SAOG (MSM:TAOI)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Insurance (General)</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>0.3779999999999999</v>
+      </c>
+      <c r="G6">
+        <v>-0.02977528089887641</v>
+      </c>
+      <c r="H6">
+        <v>-0.02977528089887641</v>
+      </c>
+      <c r="I6">
+        <v>-0.04466292134831461</v>
+      </c>
+      <c r="J6">
+        <v>-0.04466292134831461</v>
+      </c>
+      <c r="K6">
+        <v>-1.34</v>
+      </c>
+      <c r="L6">
+        <v>-0.03764044943820224</v>
+      </c>
+      <c r="M6">
+        <v>-0</v>
+      </c>
+      <c r="N6">
+        <v>-0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>-0</v>
+      </c>
+      <c r="Q6">
+        <v>-0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0.353</v>
+      </c>
+      <c r="V6">
+        <v>0.01124203821656051</v>
+      </c>
+      <c r="W6">
+        <v>-0.02567049808429119</v>
+      </c>
+      <c r="X6">
+        <v>0.06830953545430658</v>
+      </c>
+      <c r="Y6">
+        <v>-0.09398003353859777</v>
+      </c>
+      <c r="Z6">
+        <v>0.6863973778077702</v>
+      </c>
+      <c r="AA6">
+        <v>-0.03065651209871783</v>
+      </c>
+      <c r="AB6">
+        <v>0.06682872568239109</v>
+      </c>
+      <c r="AC6">
+        <v>-0.09748523778110892</v>
+      </c>
+      <c r="AD6">
+        <v>3.25</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>3.25</v>
+      </c>
+      <c r="AG6">
+        <v>2.897</v>
+      </c>
+      <c r="AH6">
+        <v>0.09379509379509379</v>
+      </c>
+      <c r="AI6">
+        <v>0.05220883534136546</v>
+      </c>
+      <c r="AJ6">
+        <v>0.08446802927369743</v>
+      </c>
+      <c r="AK6">
+        <v>0.0468035607541561</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>-2.195945945945946</v>
+      </c>
+      <c r="AP6">
+        <v>-1.957432432432433</v>
       </c>
     </row>
   </sheetData>
